--- a/src/main/resources/tags.xlsx
+++ b/src/main/resources/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="277">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,10 +62,6 @@
     <t>男</t>
   </si>
   <si>
-    <t>developing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>电商</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -81,10 +77,6 @@
     <t>女</t>
   </si>
   <si>
-    <t>developing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>电商</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -100,10 +92,6 @@
     <t>50后</t>
   </si>
   <si>
-    <t>developing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>60后</t>
   </si>
   <si>
@@ -245,19 +233,11 @@
     <t>苏州</t>
   </si>
   <si>
-    <t>developing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>政治面貌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1群众</t>
-  </si>
-  <si>
-    <t>developing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>政治面貌</t>
@@ -988,6 +968,10 @@
   </si>
   <si>
     <t>70w及以上</t>
+  </si>
+  <si>
+    <t>unpassed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1370,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1425,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1433,22 +1417,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1456,22 +1440,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1488,13 +1472,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1502,7 +1486,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -1511,13 +1495,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1525,7 +1509,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
@@ -1534,13 +1518,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1548,22 +1532,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1574,19 +1558,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1597,19 +1581,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1617,22 +1601,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1640,7 +1624,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>8</v>
@@ -1649,13 +1633,13 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1663,22 +1647,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1686,22 +1670,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1709,7 +1693,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -1718,13 +1702,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1741,13 +1725,13 @@
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1755,22 +1739,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1781,19 +1765,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1801,22 +1785,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1833,13 +1817,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1847,7 +1831,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>8</v>
@@ -1856,13 +1840,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1870,22 +1854,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1893,7 +1877,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>8</v>
@@ -1902,13 +1886,13 @@
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1916,22 +1900,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1939,22 +1923,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1962,22 +1946,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1988,19 +1972,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -2008,22 +1992,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -2031,22 +2015,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -2054,22 +2038,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -2077,22 +2061,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -2109,13 +2093,13 @@
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -2126,19 +2110,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -2146,22 +2130,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -2169,22 +2153,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -2192,7 +2176,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>8</v>
@@ -2201,13 +2185,13 @@
         <v>9</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -2218,19 +2202,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -2238,22 +2222,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -2261,22 +2245,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -2287,19 +2271,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -2310,19 +2294,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -2330,22 +2314,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -2362,13 +2346,13 @@
         <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -2379,19 +2363,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -2399,22 +2383,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -2422,7 +2406,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>8</v>
@@ -2431,13 +2415,13 @@
         <v>9</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -2445,22 +2429,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -2477,13 +2461,13 @@
         <v>9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -2491,22 +2475,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -2517,19 +2501,19 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="G50" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -2537,22 +2521,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -2560,22 +2544,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -2583,22 +2567,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -2609,19 +2593,19 @@
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -2629,22 +2613,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -2655,19 +2639,19 @@
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -2675,22 +2659,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -2701,19 +2685,19 @@
         <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -2721,22 +2705,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="G59" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -2744,7 +2728,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>8</v>
@@ -2753,13 +2737,13 @@
         <v>9</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -2767,7 +2751,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>8</v>
@@ -2776,13 +2760,13 @@
         <v>9</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -2793,19 +2777,19 @@
         <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2813,22 +2797,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -2839,19 +2823,19 @@
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -2859,7 +2843,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>8</v>
@@ -2868,13 +2852,13 @@
         <v>9</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -2882,22 +2866,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -2905,7 +2889,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>8</v>
@@ -2914,13 +2898,13 @@
         <v>9</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -2928,22 +2912,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -2954,19 +2938,19 @@
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -2977,19 +2961,19 @@
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -2997,22 +2981,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -3020,22 +3004,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -3046,19 +3030,19 @@
         <v>7</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -3066,22 +3050,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -3092,19 +3076,19 @@
         <v>7</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -3112,22 +3096,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -3138,19 +3122,19 @@
         <v>7</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -3161,19 +3145,19 @@
         <v>7</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -3181,22 +3165,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -3207,19 +3191,19 @@
         <v>7</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -3227,22 +3211,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -3250,22 +3234,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -3273,22 +3257,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -3299,19 +3283,19 @@
         <v>7</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -3319,22 +3303,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -3345,19 +3329,19 @@
         <v>7</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -3365,22 +3349,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -3388,22 +3372,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -3411,22 +3395,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -3434,22 +3418,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
@@ -3457,22 +3441,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -3480,22 +3464,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -3506,19 +3490,19 @@
         <v>7</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -3526,22 +3510,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -3549,22 +3533,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
@@ -3578,16 +3562,16 @@
         <v>8</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
@@ -3598,19 +3582,19 @@
         <v>7</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -3618,22 +3602,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -3641,22 +3625,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -3664,22 +3648,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -3690,19 +3674,19 @@
         <v>7</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
@@ -3716,16 +3700,16 @@
         <v>8</v>
       </c>
       <c r="D102" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F102" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="G102" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -3736,19 +3720,19 @@
         <v>7</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -3756,22 +3740,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -3779,22 +3763,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
@@ -3802,22 +3786,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -3825,22 +3809,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -3848,22 +3832,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -3871,22 +3855,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -3894,22 +3878,22 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -3917,22 +3901,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -3940,22 +3924,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -3963,22 +3947,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -3989,19 +3973,19 @@
         <v>7</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -4009,22 +3993,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -4032,22 +4016,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E116" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="G116" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -4055,22 +4039,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -4078,22 +4062,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -4101,22 +4085,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -4124,22 +4108,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
@@ -4150,19 +4134,19 @@
         <v>7</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -4170,22 +4154,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -4196,19 +4180,19 @@
         <v>7</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -4219,19 +4203,19 @@
         <v>7</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -4239,22 +4223,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -4262,22 +4246,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -4285,22 +4269,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -4311,19 +4295,19 @@
         <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -4337,16 +4321,16 @@
         <v>8</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
@@ -4354,22 +4338,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -4377,22 +4361,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
@@ -4400,22 +4384,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
@@ -4426,19 +4410,19 @@
         <v>7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -4449,19 +4433,19 @@
         <v>7</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -4469,22 +4453,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
@@ -4492,22 +4476,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -4515,22 +4499,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -4541,19 +4525,19 @@
         <v>7</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -4561,22 +4545,22 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -4584,22 +4568,22 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -4607,22 +4591,22 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
@@ -4636,16 +4620,16 @@
         <v>8</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>65</v>
+        <v>276</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -4653,22 +4637,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -4679,19 +4663,19 @@
         <v>7</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -4699,22 +4683,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -4722,22 +4706,22 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
@@ -4745,22 +4729,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>22</v>
+        <v>276</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
@@ -4768,22 +4752,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -4794,19 +4778,19 @@
         <v>7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
@@ -4814,22 +4798,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
@@ -4837,22 +4821,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -4860,22 +4844,22 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E152" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F152" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>251</v>
-      </c>
       <c r="G152" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -4883,22 +4867,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -4906,22 +4890,22 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -4929,22 +4913,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
@@ -4952,22 +4936,22 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
@@ -4978,19 +4962,19 @@
         <v>7</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -5001,19 +4985,19 @@
         <v>7</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D158" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="F158" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -5021,22 +5005,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>68</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -5047,19 +5031,19 @@
         <v>7</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D160" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E160" s="3" t="s">
-        <v>263</v>
-      </c>
       <c r="F160" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
@@ -5067,22 +5051,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D161" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="F161" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="G161" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
@@ -5090,22 +5074,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
@@ -5113,22 +5097,22 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -5142,16 +5126,16 @@
         <v>8</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
@@ -5165,16 +5149,16 @@
         <v>8</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
@@ -5182,22 +5166,22 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -5208,19 +5192,19 @@
         <v>7</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -5228,22 +5212,22 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E168" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F168" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="G168" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -5251,26 +5235,27 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>17</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/tags.xlsx
+++ b/src/main/resources/tags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="288">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -362,9 +362,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12星座</t>
-  </si>
-  <si>
     <t>所在商圈</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -971,6 +968,54 @@
   </si>
   <si>
     <t>unpassed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白羊座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双子座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨蟹座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>处女座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天秤座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天蝎座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射手座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔羯座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水瓶座</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双鱼座</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1352,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1363,7 +1408,7 @@
     <col min="2" max="3" width="9" style="3"/>
     <col min="4" max="4" width="23.375" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
+    <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1409,7 +1454,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1432,7 +1477,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1455,7 +1500,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1478,7 +1523,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1501,7 +1546,7 @@
         <v>21</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1524,7 +1569,7 @@
         <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1547,7 +1592,7 @@
         <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -1570,7 +1615,7 @@
         <v>26</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -1593,7 +1638,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1616,7 +1661,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -1639,7 +1684,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -1662,7 +1707,7 @@
         <v>33</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1685,7 +1730,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -1708,7 +1753,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -1731,7 +1776,7 @@
         <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -1754,7 +1799,7 @@
         <v>38</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -1777,7 +1822,7 @@
         <v>39</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -1800,7 +1845,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1823,7 +1868,7 @@
         <v>44</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -1846,7 +1891,7 @@
         <v>46</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -1869,7 +1914,7 @@
         <v>47</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -1892,7 +1937,7 @@
         <v>49</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -1915,7 +1960,7 @@
         <v>51</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -1938,7 +1983,7 @@
         <v>52</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -1961,7 +2006,7 @@
         <v>54</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
@@ -1984,7 +2029,7 @@
         <v>56</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
@@ -2007,7 +2052,7 @@
         <v>58</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -2030,7 +2075,7 @@
         <v>59</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -2053,7 +2098,7 @@
         <v>60</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
@@ -2076,7 +2121,7 @@
         <v>61</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -2099,7 +2144,7 @@
         <v>63</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
@@ -2122,7 +2167,7 @@
         <v>65</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.15">
@@ -2145,7 +2190,7 @@
         <v>67</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
@@ -2168,7 +2213,7 @@
         <v>69</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -2191,7 +2236,7 @@
         <v>71</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
@@ -2214,7 +2259,7 @@
         <v>72</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
@@ -2237,7 +2282,7 @@
         <v>74</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
@@ -2260,7 +2305,7 @@
         <v>75</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
@@ -2283,7 +2328,7 @@
         <v>76</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
@@ -2306,7 +2351,7 @@
         <v>78</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
@@ -2329,7 +2374,7 @@
         <v>80</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -2352,7 +2397,7 @@
         <v>81</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
@@ -2375,7 +2420,7 @@
         <v>83</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
@@ -2398,7 +2443,7 @@
         <v>85</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
@@ -2421,7 +2466,7 @@
         <v>87</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
@@ -2444,7 +2489,7 @@
         <v>88</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
@@ -2467,7 +2512,7 @@
         <v>89</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
@@ -2490,7 +2535,7 @@
         <v>90</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
@@ -2513,7 +2558,7 @@
         <v>91</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -2536,7 +2581,7 @@
         <v>93</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -2559,7 +2604,7 @@
         <v>95</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
@@ -2582,7 +2627,7 @@
         <v>97</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
@@ -2605,7 +2650,7 @@
         <v>98</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
@@ -2613,22 +2658,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
@@ -2636,22 +2681,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>102</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
@@ -2659,22 +2704,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
@@ -2682,22 +2727,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>105</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
@@ -2708,19 +2753,19 @@
         <v>16</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>106</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
@@ -2728,7 +2773,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>8</v>
@@ -2737,13 +2782,13 @@
         <v>9</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
@@ -2751,22 +2796,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
@@ -2774,7 +2819,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>40</v>
@@ -2783,13 +2828,13 @@
         <v>9</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
@@ -2797,22 +2842,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
@@ -2820,22 +2865,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
@@ -2846,19 +2891,19 @@
         <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>115</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
@@ -2869,19 +2914,19 @@
         <v>16</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
@@ -2892,19 +2937,19 @@
         <v>16</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>118</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
@@ -2912,22 +2957,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
@@ -2938,19 +2983,19 @@
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>121</v>
-      </c>
       <c r="E69" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
@@ -2958,22 +3003,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
@@ -2984,19 +3029,19 @@
         <v>16</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
@@ -3004,22 +3049,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>129</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
@@ -3027,22 +3072,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E73" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
@@ -3050,22 +3095,22 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
@@ -3073,22 +3118,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
@@ -3096,22 +3141,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
@@ -3125,16 +3170,16 @@
         <v>13</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
@@ -3142,22 +3187,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
@@ -3165,22 +3210,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>142</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
@@ -3188,22 +3233,22 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>143</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
@@ -3214,19 +3259,19 @@
         <v>16</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>144</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
@@ -3237,19 +3282,19 @@
         <v>16</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
@@ -3257,22 +3302,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
@@ -3280,22 +3325,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
@@ -3303,22 +3348,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.15">
@@ -3326,22 +3371,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>153</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.15">
@@ -3352,19 +3397,19 @@
         <v>16</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.15">
@@ -3375,19 +3420,19 @@
         <v>16</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>156</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.15">
@@ -3395,22 +3440,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.15">
@@ -3418,22 +3463,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.15">
@@ -3444,19 +3489,19 @@
         <v>16</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.15">
@@ -3464,22 +3509,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.15">
@@ -3487,22 +3532,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.15">
@@ -3516,7 +3561,7 @@
         <v>17</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>162</v>
@@ -3525,7 +3570,7 @@
         <v>153</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.15">
@@ -3533,22 +3578,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>163</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.15">
@@ -3559,19 +3604,19 @@
         <v>7</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>164</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.15">
@@ -3579,22 +3624,22 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
@@ -3605,19 +3650,19 @@
         <v>16</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>165</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
@@ -3631,16 +3676,16 @@
         <v>13</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>166</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.15">
@@ -3648,22 +3693,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.15">
@@ -3674,19 +3719,19 @@
         <v>7</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.15">
@@ -3697,19 +3742,19 @@
         <v>7</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.15">
@@ -3717,22 +3762,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D103" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E103" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="F103" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.15">
@@ -3740,22 +3785,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>170</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.15">
@@ -3763,22 +3808,22 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>172</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.15">
@@ -3786,22 +3831,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.15">
@@ -3809,22 +3854,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.15">
@@ -3832,22 +3877,22 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.15">
@@ -3855,22 +3900,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>179</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.15">
@@ -3881,19 +3926,19 @@
         <v>16</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.15">
@@ -3907,16 +3952,16 @@
         <v>8</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.15">
@@ -3924,22 +3969,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>181</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.15">
@@ -3947,22 +3992,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.15">
@@ -3970,22 +4015,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.15">
@@ -3993,22 +4038,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>188</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.15">
@@ -4016,22 +4061,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.15">
@@ -4039,22 +4084,22 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.15">
@@ -4062,22 +4107,22 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>194</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.15">
@@ -4085,22 +4130,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.15">
@@ -4108,22 +4153,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>198</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.15">
@@ -4131,22 +4176,22 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>199</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
@@ -4154,22 +4199,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
@@ -4180,19 +4225,19 @@
         <v>7</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.15">
@@ -4200,22 +4245,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>204</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.15">
@@ -4226,19 +4271,19 @@
         <v>16</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.15">
@@ -4246,22 +4291,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.15">
@@ -4269,22 +4314,22 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.15">
@@ -4295,19 +4340,19 @@
         <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>210</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.15">
@@ -4315,22 +4360,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.15">
@@ -4338,22 +4383,22 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.15">
@@ -4361,22 +4406,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>215</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.15">
@@ -4384,22 +4429,22 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.15">
@@ -4410,19 +4455,19 @@
         <v>7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>218</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.15">
@@ -4430,22 +4475,22 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.15">
@@ -4453,22 +4498,22 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.15">
@@ -4476,22 +4521,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.15">
@@ -4499,22 +4544,22 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>225</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.15">
@@ -4522,22 +4567,22 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>226</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.15">
@@ -4545,22 +4590,22 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.15">
@@ -4574,16 +4619,16 @@
         <v>13</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
@@ -4591,22 +4636,22 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>231</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
@@ -4614,22 +4659,22 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.15">
@@ -4637,22 +4682,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.15">
@@ -4660,22 +4705,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E144" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="G144" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
@@ -4689,16 +4734,16 @@
         <v>8</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>235</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.15">
@@ -4712,16 +4757,16 @@
         <v>8</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>236</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.15">
@@ -4729,22 +4774,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.15">
@@ -4752,22 +4797,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.15">
@@ -4775,22 +4820,22 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.15">
@@ -4798,22 +4843,22 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>244</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.15">
@@ -4821,22 +4866,22 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>245</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.15">
@@ -4844,22 +4889,22 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.15">
@@ -4867,22 +4912,22 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.15">
@@ -4896,16 +4941,16 @@
         <v>8</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.15">
@@ -4913,22 +4958,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>254</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.15">
@@ -4936,22 +4981,22 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.15">
@@ -4962,19 +5007,19 @@
         <v>7</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.15">
@@ -4982,22 +5027,22 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.15">
@@ -5005,22 +5050,22 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>261</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.15">
@@ -5028,22 +5073,22 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>262</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.15">
@@ -5051,22 +5096,22 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.15">
@@ -5077,19 +5122,19 @@
         <v>16</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>265</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.15">
@@ -5097,22 +5142,22 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.15">
@@ -5126,16 +5171,16 @@
         <v>8</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.15">
@@ -5143,22 +5188,22 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.15">
@@ -5166,22 +5211,22 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>272</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.15">
@@ -5189,22 +5234,22 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>273</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.15">
@@ -5212,22 +5257,22 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>274</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.15">
@@ -5235,22 +5280,275 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>247</v>
+        <v>9</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>269</v>
+        <v>99</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
